--- a/DONE/DEMATERA, PEDRO BAUSTISTA.xlsx
+++ b/DONE/DEMATERA, PEDRO BAUSTISTA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>DEMATERA, PEDRO JR. BAUSTISTA</t>
+  </si>
+  <si>
+    <t>BDAY 3/27/2023</t>
   </si>
 </sst>
 </file>
@@ -604,9 +610,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -616,17 +619,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,247 +648,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1124,6 +889,247 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1157,7 +1163,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1200,7 +1206,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1270,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1324,7 +1330,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1396,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1459,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1557,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1616,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,7 +1681,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1724,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1799,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,7 +1985,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,7 +2051,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,7 +2109,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2175,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2231,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2306,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2349,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2415,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2471,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,25 +2567,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="0">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="6"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="5">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="4"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="3">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="2"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2591,25 +2597,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K75" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K75" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2942,8 +2948,8 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2965,64 +2971,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="51"/>
+      <c r="B2" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="55">
         <v>41456</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3048,18 +3054,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3106,7 +3112,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3116,7 +3122,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.75</v>
+        <v>79</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3130,7 +3136,7 @@
       <c r="D10" s="39"/>
       <c r="E10" s="34">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="13" t="str">
@@ -3155,7 +3161,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
@@ -3178,7 +3184,7 @@
       <c r="D12" s="39"/>
       <c r="E12" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
@@ -3201,7 +3207,7 @@
       <c r="D13" s="39"/>
       <c r="E13" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
@@ -3224,7 +3230,7 @@
       <c r="D14" s="39"/>
       <c r="E14" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
@@ -3247,7 +3253,7 @@
       <c r="D15" s="39"/>
       <c r="E15" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
@@ -3270,7 +3276,7 @@
       <c r="D16" s="43"/>
       <c r="E16" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="42">
@@ -3293,7 +3299,7 @@
       <c r="D17" s="39"/>
       <c r="E17" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="13">
@@ -3316,7 +3322,7 @@
       <c r="D18" s="39"/>
       <c r="E18" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
@@ -3339,7 +3345,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="13">
@@ -3362,7 +3368,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
@@ -3385,7 +3391,7 @@
       <c r="D21" s="39"/>
       <c r="E21" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13">
@@ -3412,7 +3418,7 @@
       </c>
       <c r="E22" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
@@ -3433,7 +3439,7 @@
       <c r="D23" s="39"/>
       <c r="E23" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -3456,7 +3462,7 @@
       <c r="D24" s="39"/>
       <c r="E24" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
@@ -3479,7 +3485,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
@@ -3502,7 +3508,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="13">
@@ -3525,7 +3531,7 @@
       <c r="D27" s="39"/>
       <c r="E27" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
@@ -3548,7 +3554,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="13">
@@ -3571,7 +3577,7 @@
       <c r="D29" s="39"/>
       <c r="E29" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
@@ -3594,7 +3600,7 @@
       <c r="D30" s="39"/>
       <c r="E30" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
@@ -3617,7 +3623,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
@@ -3640,7 +3646,7 @@
       <c r="D32" s="39"/>
       <c r="E32" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
@@ -3663,7 +3669,7 @@
       <c r="D33" s="39"/>
       <c r="E33" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
@@ -3686,7 +3692,7 @@
       <c r="D34" s="39"/>
       <c r="E34" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
@@ -3713,7 +3719,7 @@
       </c>
       <c r="E35" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
@@ -3734,7 +3740,7 @@
       <c r="D36" s="39"/>
       <c r="E36" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="str">
@@ -3757,7 +3763,7 @@
       <c r="D37" s="39"/>
       <c r="E37" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
@@ -3780,7 +3786,7 @@
       <c r="D38" s="39"/>
       <c r="E38" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
@@ -3803,7 +3809,7 @@
       <c r="D39" s="39"/>
       <c r="E39" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="13">
@@ -3826,7 +3832,7 @@
       <c r="D40" s="39"/>
       <c r="E40" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
@@ -3849,7 +3855,7 @@
       <c r="D41" s="39"/>
       <c r="E41" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
@@ -3872,7 +3878,7 @@
       <c r="D42" s="39"/>
       <c r="E42" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
@@ -3895,7 +3901,7 @@
       <c r="D43" s="39"/>
       <c r="E43" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="13">
@@ -3918,7 +3924,7 @@
       <c r="D44" s="39"/>
       <c r="E44" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
@@ -3941,7 +3947,7 @@
       <c r="D45" s="39"/>
       <c r="E45" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
@@ -3964,7 +3970,7 @@
       <c r="D46" s="39"/>
       <c r="E46" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
@@ -3987,7 +3993,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
@@ -4014,7 +4020,7 @@
       </c>
       <c r="E48" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
@@ -4035,7 +4041,7 @@
       <c r="D49" s="39"/>
       <c r="E49" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
@@ -4058,7 +4064,7 @@
       <c r="D50" s="39"/>
       <c r="E50" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
@@ -4081,7 +4087,7 @@
       <c r="D51" s="39"/>
       <c r="E51" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
@@ -4104,7 +4110,7 @@
       <c r="D52" s="39"/>
       <c r="E52" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
@@ -4127,7 +4133,7 @@
       <c r="D53" s="39"/>
       <c r="E53" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="13">
@@ -4150,7 +4156,7 @@
       <c r="D54" s="39"/>
       <c r="E54" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
@@ -4173,7 +4179,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
@@ -4196,7 +4202,7 @@
       <c r="D56" s="39"/>
       <c r="E56" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
@@ -4219,7 +4225,7 @@
       <c r="D57" s="39"/>
       <c r="E57" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
@@ -4242,7 +4248,7 @@
       <c r="D58" s="39"/>
       <c r="E58" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
@@ -4265,7 +4271,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="13">
@@ -4288,7 +4294,7 @@
       <c r="D60" s="39"/>
       <c r="E60" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="13">
@@ -4315,7 +4321,7 @@
       </c>
       <c r="E61" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
@@ -4336,7 +4342,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
@@ -4359,7 +4365,7 @@
       <c r="D63" s="39"/>
       <c r="E63" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
@@ -4382,7 +4388,7 @@
       <c r="D64" s="39"/>
       <c r="E64" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
@@ -4405,7 +4411,7 @@
       <c r="D65" s="39"/>
       <c r="E65" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
@@ -4428,7 +4434,7 @@
       <c r="D66" s="39"/>
       <c r="E66" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -4451,7 +4457,7 @@
       <c r="D67" s="39"/>
       <c r="E67" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -4474,7 +4480,7 @@
       <c r="D68" s="39"/>
       <c r="E68" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
@@ -4497,7 +4503,7 @@
       <c r="D69" s="39"/>
       <c r="E69" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
@@ -4520,7 +4526,7 @@
       <c r="D70" s="39"/>
       <c r="E70" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4543,7 +4549,7 @@
       <c r="D71" s="39"/>
       <c r="E71" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -4566,7 +4572,7 @@
       <c r="D72" s="39"/>
       <c r="E72" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -4589,7 +4595,7 @@
       <c r="D73" s="39"/>
       <c r="E73" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
@@ -4612,7 +4618,7 @@
       <c r="D74" s="39"/>
       <c r="E74" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -4639,7 +4645,7 @@
       </c>
       <c r="E75" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="13">
@@ -4662,7 +4668,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -4687,7 +4693,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
@@ -4715,7 +4721,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
@@ -4733,16 +4739,18 @@
         <v>44986</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4759,7 +4767,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
@@ -4781,7 +4789,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -4803,7 +4811,7 @@
       <c r="D82" s="39"/>
       <c r="E82" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
@@ -4825,7 +4833,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
@@ -4847,7 +4855,7 @@
       <c r="D84" s="39"/>
       <c r="E84" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
@@ -4869,7 +4877,7 @@
       <c r="D85" s="39"/>
       <c r="E85" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F85" s="20"/>
       <c r="G85" s="13" t="str">
@@ -4891,7 +4899,7 @@
       <c r="D86" s="39"/>
       <c r="E86" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
@@ -4913,7 +4921,7 @@
       <c r="D87" s="39"/>
       <c r="E87" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
@@ -4935,7 +4943,7 @@
       <c r="D88" s="39"/>
       <c r="E88" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F88" s="20"/>
       <c r="G88" s="13" t="str">
@@ -4957,7 +4965,7 @@
       <c r="D89" s="39"/>
       <c r="E89" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F89" s="20"/>
       <c r="G89" s="13" t="str">
@@ -4979,7 +4987,7 @@
       <c r="D90" s="39"/>
       <c r="E90" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
@@ -5001,7 +5009,7 @@
       <c r="D91" s="39"/>
       <c r="E91" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
@@ -5023,7 +5031,7 @@
       <c r="D92" s="39"/>
       <c r="E92" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
@@ -5045,7 +5053,7 @@
       <c r="D93" s="39"/>
       <c r="E93" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F93" s="20"/>
       <c r="G93" s="13" t="str">
@@ -5067,7 +5075,7 @@
       <c r="D94" s="39"/>
       <c r="E94" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F94" s="20"/>
       <c r="G94" s="13" t="str">
@@ -5089,7 +5097,7 @@
       <c r="D95" s="39"/>
       <c r="E95" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F95" s="20"/>
       <c r="G95" s="13" t="str">
@@ -5111,7 +5119,7 @@
       <c r="D96" s="39"/>
       <c r="E96" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F96" s="20"/>
       <c r="G96" s="13" t="str">
@@ -5133,7 +5141,7 @@
       <c r="D97" s="39"/>
       <c r="E97" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F97" s="20"/>
       <c r="G97" s="13" t="str">
@@ -5155,7 +5163,7 @@
       <c r="D98" s="39"/>
       <c r="E98" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F98" s="20"/>
       <c r="G98" s="13" t="str">
@@ -5177,7 +5185,7 @@
       <c r="D99" s="39"/>
       <c r="E99" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F99" s="20"/>
       <c r="G99" s="13" t="str">
@@ -5199,7 +5207,7 @@
       <c r="D100" s="39"/>
       <c r="E100" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
@@ -5221,7 +5229,7 @@
       <c r="D101" s="39"/>
       <c r="E101" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
@@ -5243,7 +5251,7 @@
       <c r="D102" s="39"/>
       <c r="E102" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F102" s="20"/>
       <c r="G102" s="13" t="str">
@@ -5265,7 +5273,7 @@
       <c r="D103" s="39"/>
       <c r="E103" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F103" s="20"/>
       <c r="G103" s="13" t="str">
@@ -5287,7 +5295,7 @@
       <c r="D104" s="39"/>
       <c r="E104" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="13" t="str">
@@ -5309,7 +5317,7 @@
       <c r="D105" s="39"/>
       <c r="E105" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="13" t="str">
@@ -5331,7 +5339,7 @@
       <c r="D106" s="39"/>
       <c r="E106" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F106" s="20"/>
       <c r="G106" s="13" t="str">
@@ -5353,7 +5361,7 @@
       <c r="D107" s="39"/>
       <c r="E107" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F107" s="20"/>
       <c r="G107" s="13" t="str">
@@ -5375,7 +5383,7 @@
       <c r="D108" s="39"/>
       <c r="E108" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F108" s="20"/>
       <c r="G108" s="13" t="str">
@@ -5397,7 +5405,7 @@
       <c r="D109" s="39"/>
       <c r="E109" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F109" s="20"/>
       <c r="G109" s="13" t="str">
@@ -5416,7 +5424,7 @@
       <c r="D110" s="39"/>
       <c r="E110" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F110" s="20"/>
       <c r="G110" s="13" t="str">
@@ -5435,7 +5443,7 @@
       <c r="D111" s="39"/>
       <c r="E111" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F111" s="20"/>
       <c r="G111" s="13" t="str">
@@ -5454,7 +5462,7 @@
       <c r="D112" s="39"/>
       <c r="E112" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F112" s="20"/>
       <c r="G112" s="13" t="str">
@@ -5473,7 +5481,7 @@
       <c r="D113" s="39"/>
       <c r="E113" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F113" s="20"/>
       <c r="G113" s="13" t="str">
@@ -5492,7 +5500,7 @@
       <c r="D114" s="39"/>
       <c r="E114" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="13" t="str">
@@ -5511,7 +5519,7 @@
       <c r="D115" s="39"/>
       <c r="E115" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F115" s="20"/>
       <c r="G115" s="13" t="str">
@@ -5530,7 +5538,7 @@
       <c r="D116" s="39"/>
       <c r="E116" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="13" t="str">
@@ -5549,7 +5557,7 @@
       <c r="D117" s="39"/>
       <c r="E117" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F117" s="20"/>
       <c r="G117" s="13" t="str">
@@ -5568,7 +5576,7 @@
       <c r="D118" s="39"/>
       <c r="E118" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="13" t="str">
@@ -5587,7 +5595,7 @@
       <c r="D119" s="39"/>
       <c r="E119" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
@@ -5606,7 +5614,7 @@
       <c r="D120" s="39"/>
       <c r="E120" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F120" s="20"/>
       <c r="G120" s="13" t="str">
@@ -5625,7 +5633,7 @@
       <c r="D121" s="39"/>
       <c r="E121" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F121" s="20"/>
       <c r="G121" s="13" t="str">
@@ -5644,7 +5652,7 @@
       <c r="D122" s="39"/>
       <c r="E122" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="13" t="str">
@@ -5663,7 +5671,7 @@
       <c r="D123" s="39"/>
       <c r="E123" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="13" t="str">
@@ -5682,7 +5690,7 @@
       <c r="D124" s="39"/>
       <c r="E124" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
@@ -5701,7 +5709,7 @@
       <c r="D125" s="39"/>
       <c r="E125" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="13" t="str">
@@ -5720,7 +5728,7 @@
       <c r="D126" s="39"/>
       <c r="E126" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F126" s="20"/>
       <c r="G126" s="13" t="str">
@@ -5739,7 +5747,7 @@
       <c r="D127" s="39"/>
       <c r="E127" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F127" s="20"/>
       <c r="G127" s="13" t="str">
@@ -5758,7 +5766,7 @@
       <c r="D128" s="39"/>
       <c r="E128" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="13" t="str">
@@ -5777,7 +5785,7 @@
       <c r="D129" s="39"/>
       <c r="E129" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F129" s="20"/>
       <c r="G129" s="13" t="str">
@@ -5796,7 +5804,7 @@
       <c r="D130" s="39"/>
       <c r="E130" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F130" s="20"/>
       <c r="G130" s="13" t="str">
@@ -5815,7 +5823,7 @@
       <c r="D131" s="39"/>
       <c r="E131" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F131" s="20"/>
       <c r="G131" s="13" t="str">
@@ -5834,7 +5842,7 @@
       <c r="D132" s="39"/>
       <c r="E132" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F132" s="20"/>
       <c r="G132" s="13" t="str">
@@ -5853,7 +5861,7 @@
       <c r="D133" s="39"/>
       <c r="E133" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F133" s="20"/>
       <c r="G133" s="13" t="str">
@@ -5872,7 +5880,7 @@
       <c r="D134" s="43"/>
       <c r="E134" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F134" s="15"/>
       <c r="G134" s="42" t="str">
@@ -5886,17 +5894,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5934,7 +5942,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5956,64 +5964,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="55">
         <v>41456</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6039,18 +6047,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6332,7 +6340,9 @@
         <f t="shared" ref="A20:A50" si="0">EDATE(A19,1)</f>
         <v>44986</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
@@ -6344,7 +6354,9 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">

--- a/DONE/DEMATERA, PEDRO BAUSTISTA.xlsx
+++ b/DONE/DEMATERA, PEDRO BAUSTISTA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -613,17 +613,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -633,6 +630,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1163,7 +1163,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1206,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1270,7 +1270,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1330,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1396,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1459,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1557,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1616,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1681,7 +1681,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1724,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1799,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1985,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +2051,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2109,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2175,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2231,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2306,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2349,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2415,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2471,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2947,9 +2947,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78:C79"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2979,14 +2979,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2997,16 +2997,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>41456</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3019,16 +3019,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3054,18 +3054,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3134,9 +3134,8 @@
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
       <c r="D10" s="39"/>
-      <c r="E10" s="34">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+      <c r="E10" s="34" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="13" t="str">
@@ -3159,10 +3158,7 @@
         <v>1.25</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3182,10 +3178,7 @@
         <v>1.25</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3205,10 +3198,7 @@
         <v>1.25</v>
       </c>
       <c r="D13" s="39"/>
-      <c r="E13" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3228,10 +3218,7 @@
         <v>1.25</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3251,10 +3238,7 @@
         <v>1.25</v>
       </c>
       <c r="D15" s="39"/>
-      <c r="E15" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3274,10 +3258,7 @@
         <v>1.25</v>
       </c>
       <c r="D16" s="43"/>
-      <c r="E16" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="15"/>
       <c r="G16" s="42">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3297,10 +3278,7 @@
         <v>1.25</v>
       </c>
       <c r="D17" s="39"/>
-      <c r="E17" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="20"/>
       <c r="G17" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3320,10 +3298,7 @@
         <v>1.25</v>
       </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3343,10 +3318,7 @@
         <v>1.25</v>
       </c>
       <c r="D19" s="39"/>
-      <c r="E19" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3366,10 +3338,7 @@
         <v>1.25</v>
       </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3389,10 +3358,7 @@
         <v>1.25</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="20"/>
       <c r="G21" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3416,10 +3382,7 @@
       <c r="D22" s="39">
         <v>5</v>
       </c>
-      <c r="E22" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3437,10 +3400,7 @@
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3460,10 +3420,7 @@
         <v>1.25</v>
       </c>
       <c r="D24" s="39"/>
-      <c r="E24" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3483,10 +3440,7 @@
         <v>1.25</v>
       </c>
       <c r="D25" s="39"/>
-      <c r="E25" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3506,10 +3460,7 @@
         <v>1.25</v>
       </c>
       <c r="D26" s="39"/>
-      <c r="E26" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E26" s="9"/>
       <c r="F26" s="20"/>
       <c r="G26" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3529,10 +3480,7 @@
         <v>1.25</v>
       </c>
       <c r="D27" s="39"/>
-      <c r="E27" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3552,10 +3500,7 @@
         <v>1.25</v>
       </c>
       <c r="D28" s="39"/>
-      <c r="E28" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="20"/>
       <c r="G28" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3575,10 +3520,7 @@
         <v>1.25</v>
       </c>
       <c r="D29" s="39"/>
-      <c r="E29" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E29" s="9"/>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3598,10 +3540,7 @@
         <v>1.25</v>
       </c>
       <c r="D30" s="39"/>
-      <c r="E30" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3621,10 +3560,7 @@
         <v>1.25</v>
       </c>
       <c r="D31" s="39"/>
-      <c r="E31" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3644,10 +3580,7 @@
         <v>1.25</v>
       </c>
       <c r="D32" s="39"/>
-      <c r="E32" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E32" s="9"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3667,10 +3600,7 @@
         <v>1.25</v>
       </c>
       <c r="D33" s="39"/>
-      <c r="E33" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3690,10 +3620,7 @@
         <v>1.25</v>
       </c>
       <c r="D34" s="39"/>
-      <c r="E34" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3717,10 +3644,7 @@
       <c r="D35" s="39">
         <v>5</v>
       </c>
-      <c r="E35" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3738,10 +3662,7 @@
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3761,10 +3682,7 @@
         <v>1.25</v>
       </c>
       <c r="D37" s="39"/>
-      <c r="E37" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3784,10 +3702,7 @@
         <v>1.25</v>
       </c>
       <c r="D38" s="39"/>
-      <c r="E38" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E38" s="9"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3807,10 +3722,7 @@
         <v>1.25</v>
       </c>
       <c r="D39" s="39"/>
-      <c r="E39" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3830,10 +3742,7 @@
         <v>1.25</v>
       </c>
       <c r="D40" s="39"/>
-      <c r="E40" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3853,10 +3762,7 @@
         <v>1.25</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3876,10 +3782,7 @@
         <v>1.25</v>
       </c>
       <c r="D42" s="39"/>
-      <c r="E42" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E42" s="9"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3899,10 +3802,7 @@
         <v>1.25</v>
       </c>
       <c r="D43" s="39"/>
-      <c r="E43" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="20"/>
       <c r="G43" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3922,10 +3822,7 @@
         <v>1.25</v>
       </c>
       <c r="D44" s="39"/>
-      <c r="E44" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3945,10 +3842,7 @@
         <v>1.25</v>
       </c>
       <c r="D45" s="39"/>
-      <c r="E45" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E45" s="9"/>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3968,10 +3862,7 @@
         <v>1.25</v>
       </c>
       <c r="D46" s="39"/>
-      <c r="E46" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -3991,10 +3882,7 @@
         <v>1.25</v>
       </c>
       <c r="D47" s="39"/>
-      <c r="E47" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4018,10 +3906,7 @@
       <c r="D48" s="39">
         <v>5</v>
       </c>
-      <c r="E48" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4039,10 +3924,7 @@
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4062,10 +3944,7 @@
         <v>1.25</v>
       </c>
       <c r="D50" s="39"/>
-      <c r="E50" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4085,10 +3964,7 @@
         <v>1.25</v>
       </c>
       <c r="D51" s="39"/>
-      <c r="E51" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4108,10 +3984,7 @@
         <v>1.25</v>
       </c>
       <c r="D52" s="39"/>
-      <c r="E52" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4131,10 +4004,7 @@
         <v>1.25</v>
       </c>
       <c r="D53" s="39"/>
-      <c r="E53" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4154,10 +4024,7 @@
         <v>1.25</v>
       </c>
       <c r="D54" s="39"/>
-      <c r="E54" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4177,10 +4044,7 @@
         <v>1.25</v>
       </c>
       <c r="D55" s="39"/>
-      <c r="E55" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4200,10 +4064,7 @@
         <v>1.25</v>
       </c>
       <c r="D56" s="39"/>
-      <c r="E56" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4223,10 +4084,7 @@
         <v>1.25</v>
       </c>
       <c r="D57" s="39"/>
-      <c r="E57" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4246,10 +4104,7 @@
         <v>1.25</v>
       </c>
       <c r="D58" s="39"/>
-      <c r="E58" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E58" s="9"/>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4269,10 +4124,7 @@
         <v>1.25</v>
       </c>
       <c r="D59" s="39"/>
-      <c r="E59" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E59" s="9"/>
       <c r="F59" s="20"/>
       <c r="G59" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4292,10 +4144,7 @@
         <v>1.25</v>
       </c>
       <c r="D60" s="39"/>
-      <c r="E60" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E60" s="9"/>
       <c r="F60" s="20"/>
       <c r="G60" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4319,10 +4168,7 @@
       <c r="D61" s="39">
         <v>5</v>
       </c>
-      <c r="E61" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E61" s="9"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4340,10 +4186,7 @@
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
-      <c r="E62" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4363,10 +4206,7 @@
         <v>1.25</v>
       </c>
       <c r="D63" s="39"/>
-      <c r="E63" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4386,10 +4226,7 @@
         <v>1.25</v>
       </c>
       <c r="D64" s="39"/>
-      <c r="E64" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4409,10 +4246,7 @@
         <v>1.25</v>
       </c>
       <c r="D65" s="39"/>
-      <c r="E65" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4432,10 +4266,7 @@
         <v>1.25</v>
       </c>
       <c r="D66" s="39"/>
-      <c r="E66" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4455,10 +4286,7 @@
         <v>1.25</v>
       </c>
       <c r="D67" s="39"/>
-      <c r="E67" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4478,10 +4306,7 @@
         <v>1.25</v>
       </c>
       <c r="D68" s="39"/>
-      <c r="E68" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4501,10 +4326,7 @@
         <v>1.25</v>
       </c>
       <c r="D69" s="39"/>
-      <c r="E69" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4524,10 +4346,7 @@
         <v>1.25</v>
       </c>
       <c r="D70" s="39"/>
-      <c r="E70" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4547,10 +4366,7 @@
         <v>1.25</v>
       </c>
       <c r="D71" s="39"/>
-      <c r="E71" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4570,10 +4386,7 @@
         <v>1.25</v>
       </c>
       <c r="D72" s="39"/>
-      <c r="E72" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4593,10 +4406,7 @@
         <v>1.25</v>
       </c>
       <c r="D73" s="39"/>
-      <c r="E73" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4616,10 +4426,7 @@
         <v>1.25</v>
       </c>
       <c r="D74" s="39"/>
-      <c r="E74" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4643,10 +4450,7 @@
       <c r="D75" s="39">
         <v>5</v>
       </c>
-      <c r="E75" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4666,10 +4470,7 @@
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
-      <c r="E76" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4691,10 +4492,7 @@
         <v>1.25</v>
       </c>
       <c r="D77" s="39"/>
-      <c r="E77" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4719,10 +4517,7 @@
         <v>1.25</v>
       </c>
       <c r="D78" s="39"/>
-      <c r="E78" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4743,10 +4538,7 @@
         <v>1.25</v>
       </c>
       <c r="D79" s="39"/>
-      <c r="E79" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4765,10 +4557,7 @@
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4787,10 +4576,7 @@
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
-      <c r="E81" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4809,10 +4595,7 @@
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
-      <c r="E82" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4831,10 +4614,7 @@
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
-      <c r="E83" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4853,10 +4633,7 @@
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
-      <c r="E84" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4875,10 +4652,7 @@
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E85" s="9"/>
       <c r="F85" s="20"/>
       <c r="G85" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4897,10 +4671,7 @@
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
-      <c r="E86" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E86" s="9"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4919,10 +4690,7 @@
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
-      <c r="E87" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4941,10 +4709,7 @@
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
-      <c r="E88" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4963,10 +4728,7 @@
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
-      <c r="E89" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E89" s="9"/>
       <c r="F89" s="20"/>
       <c r="G89" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -4985,10 +4747,7 @@
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
-      <c r="E90" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5007,10 +4766,7 @@
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
-      <c r="E91" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5029,10 +4785,7 @@
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
-      <c r="E92" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5051,10 +4804,7 @@
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
-      <c r="E93" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5073,10 +4823,7 @@
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
-      <c r="E94" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E94" s="9"/>
       <c r="F94" s="20"/>
       <c r="G94" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5095,10 +4842,7 @@
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
-      <c r="E95" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E95" s="9"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5117,10 +4861,7 @@
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
-      <c r="E96" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E96" s="9"/>
       <c r="F96" s="20"/>
       <c r="G96" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5139,10 +4880,7 @@
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
-      <c r="E97" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E97" s="9"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5161,10 +4899,7 @@
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
-      <c r="E98" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E98" s="9"/>
       <c r="F98" s="20"/>
       <c r="G98" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5183,10 +4918,7 @@
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
-      <c r="E99" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E99" s="9"/>
       <c r="F99" s="20"/>
       <c r="G99" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5205,10 +4937,7 @@
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
-      <c r="E100" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5227,10 +4956,7 @@
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
-      <c r="E101" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5249,10 +4975,7 @@
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
-      <c r="E102" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5271,10 +4994,7 @@
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
-      <c r="E103" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E103" s="9"/>
       <c r="F103" s="20"/>
       <c r="G103" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5293,10 +5013,7 @@
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
-      <c r="E104" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E104" s="9"/>
       <c r="F104" s="20"/>
       <c r="G104" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5315,10 +5032,7 @@
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
-      <c r="E105" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E105" s="9"/>
       <c r="F105" s="20"/>
       <c r="G105" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5337,10 +5051,7 @@
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
-      <c r="E106" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E106" s="9"/>
       <c r="F106" s="20"/>
       <c r="G106" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5359,10 +5070,7 @@
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
-      <c r="E107" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E107" s="9"/>
       <c r="F107" s="20"/>
       <c r="G107" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5381,10 +5089,7 @@
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
-      <c r="E108" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E108" s="9"/>
       <c r="F108" s="20"/>
       <c r="G108" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5403,10 +5108,7 @@
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
-      <c r="E109" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E109" s="9"/>
       <c r="F109" s="20"/>
       <c r="G109" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5422,10 +5124,7 @@
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
-      <c r="E110" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E110" s="9"/>
       <c r="F110" s="20"/>
       <c r="G110" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5441,10 +5140,7 @@
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
-      <c r="E111" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E111" s="9"/>
       <c r="F111" s="20"/>
       <c r="G111" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5460,10 +5156,7 @@
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
-      <c r="E112" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E112" s="9"/>
       <c r="F112" s="20"/>
       <c r="G112" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5479,10 +5172,7 @@
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
-      <c r="E113" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E113" s="9"/>
       <c r="F113" s="20"/>
       <c r="G113" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5498,10 +5188,7 @@
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
-      <c r="E114" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E114" s="9"/>
       <c r="F114" s="20"/>
       <c r="G114" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5517,10 +5204,7 @@
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
-      <c r="E115" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E115" s="9"/>
       <c r="F115" s="20"/>
       <c r="G115" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5536,10 +5220,7 @@
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
-      <c r="E116" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E116" s="9"/>
       <c r="F116" s="20"/>
       <c r="G116" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5555,10 +5236,7 @@
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
-      <c r="E117" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E117" s="9"/>
       <c r="F117" s="20"/>
       <c r="G117" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5574,10 +5252,7 @@
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
-      <c r="E118" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E118" s="9"/>
       <c r="F118" s="20"/>
       <c r="G118" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5593,10 +5268,7 @@
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
-      <c r="E119" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E119" s="9"/>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5612,10 +5284,7 @@
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
-      <c r="E120" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E120" s="9"/>
       <c r="F120" s="20"/>
       <c r="G120" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5631,10 +5300,7 @@
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
-      <c r="E121" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E121" s="9"/>
       <c r="F121" s="20"/>
       <c r="G121" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5650,10 +5316,7 @@
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
-      <c r="E122" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E122" s="9"/>
       <c r="F122" s="20"/>
       <c r="G122" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5669,10 +5332,7 @@
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
-      <c r="E123" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E123" s="9"/>
       <c r="F123" s="20"/>
       <c r="G123" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5688,10 +5348,7 @@
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
-      <c r="E124" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E124" s="9"/>
       <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5707,10 +5364,7 @@
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
-      <c r="E125" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E125" s="9"/>
       <c r="F125" s="20"/>
       <c r="G125" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5726,10 +5380,7 @@
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
-      <c r="E126" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E126" s="9"/>
       <c r="F126" s="20"/>
       <c r="G126" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5745,10 +5396,7 @@
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
-      <c r="E127" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E127" s="9"/>
       <c r="F127" s="20"/>
       <c r="G127" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5764,10 +5412,7 @@
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
-      <c r="E128" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E128" s="9"/>
       <c r="F128" s="20"/>
       <c r="G128" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5783,10 +5428,7 @@
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
-      <c r="E129" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E129" s="9"/>
       <c r="F129" s="20"/>
       <c r="G129" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5802,10 +5444,7 @@
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
-      <c r="E130" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E130" s="9"/>
       <c r="F130" s="20"/>
       <c r="G130" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5821,10 +5460,7 @@
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
-      <c r="E131" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E131" s="9"/>
       <c r="F131" s="20"/>
       <c r="G131" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5840,10 +5476,7 @@
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
-      <c r="E132" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E132" s="9"/>
       <c r="F132" s="20"/>
       <c r="G132" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5859,10 +5492,7 @@
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
-      <c r="E133" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E133" s="9"/>
       <c r="F133" s="20"/>
       <c r="G133" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5878,10 +5508,7 @@
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
       <c r="D134" s="43"/>
-      <c r="E134" s="9">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
-      </c>
+      <c r="E134" s="9"/>
       <c r="F134" s="15"/>
       <c r="G134" s="42" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
@@ -5894,19 +5521,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
@@ -5915,7 +5542,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -5923,8 +5550,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                           OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -5972,14 +5599,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5990,16 +5617,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>41456</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6012,16 +5639,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6047,18 +5674,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/DONE/DEMATERA, PEDRO BAUSTISTA.xlsx
+++ b/DONE/DEMATERA, PEDRO BAUSTISTA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>BDAY 3/27/2023</t>
+  </si>
+  <si>
+    <t>4/3-5/2023</t>
   </si>
 </sst>
 </file>
@@ -613,14 +616,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -630,9 +636,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1163,7 +1166,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1209,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1270,7 +1273,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1333,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1399,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1462,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1560,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1619,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1681,7 +1684,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1727,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1802,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1988,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +2054,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2112,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2178,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2234,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2309,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2352,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2418,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2474,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,10 +2949,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2979,14 +2982,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2997,16 +3000,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>41456</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3019,16 +3022,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3054,18 +3057,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5521,17 +5524,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5566,10 +5569,10 @@
   </sheetPr>
   <dimension ref="A2:K75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5599,14 +5602,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5617,16 +5620,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>41456</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5639,16 +5642,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5674,18 +5677,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5742,7 +5745,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5990,7 +5993,9 @@
         <f t="shared" si="0"/>
         <v>45017</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
@@ -5999,10 +6004,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="39">
+        <v>3</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
